--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1896607.244164848</v>
+        <v>1894719.662648446</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10549550.8549194</v>
+        <v>10549550.85491939</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>305.9894042936358</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>69.10519556833704</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.31370764131945</v>
       </c>
       <c r="I4" t="n">
-        <v>19.62301746850182</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>127.7140457494434</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2628100121215</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -944,7 +944,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.22769775781592</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>66.94614978640935</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>304.4053514208617</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>30.54110646053093</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498028</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>164.981721572249</v>
+        <v>148.3125470028956</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.33602639002968</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>215.3633434071636</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>168.5378721627392</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.4415592848744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>48.33065597841657</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>38.66072130767877</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>251.9824105892043</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.3913673420929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>150.6781871655183</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750039</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965547</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801228</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>17.90786120994199</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571511</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523592</v>
+        <v>54.76109577523571</v>
       </c>
       <c r="S31" t="n">
-        <v>125.1335462166587</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4147,7 +4147,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>906.9212171249367</v>
+        <v>1320.24122488254</v>
       </c>
       <c r="D2" t="n">
-        <v>548.6555185181862</v>
+        <v>1320.24122488254</v>
       </c>
       <c r="E2" t="n">
-        <v>548.6555185181862</v>
+        <v>934.4529722842958</v>
       </c>
       <c r="F2" t="n">
-        <v>137.6696137285787</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>123.7462096671696</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>381.6292235663335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>231.5125841539978</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>231.5125841539978</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>231.5125841539978</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>231.5125841539978</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>73.76421158652792</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2070.717079250664</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C5" t="n">
-        <v>2070.717079250664</v>
+        <v>1878.345729894536</v>
       </c>
       <c r="D5" t="n">
-        <v>1712.451380643913</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1326.663128045669</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>915.6772232560613</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4568,7 +4568,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>2070.717079250664</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.7960311703076</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="C7" t="n">
-        <v>122.8598482424007</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="D7" t="n">
-        <v>122.8598482424007</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036444</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>290.5651556036576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2366.086203674651</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1997.12368673424</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1638.857988127489</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.069735529245</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>842.0838307396373</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674651</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674651</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2366.086203674651</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.712065060056</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>698.712065060056</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477203</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674168</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79258430574922</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>84.79258430574922</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036444</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.712065060056</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X10" t="n">
-        <v>698.712065060056</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.712065060056</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,28 +5018,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5054,34 +5054,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,16 +5115,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.4909633328888</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049819</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>542.4381409926461</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>394.525047410253</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.787631771461</v>
+        <v>731.0291971045609</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.787631771461</v>
+        <v>731.0291971045609</v>
       </c>
       <c r="Y13" t="n">
-        <v>1043.139428163129</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,34 +5288,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>446.7290208898078</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="C16" t="n">
-        <v>277.7928379619009</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D16" t="n">
-        <v>277.7928379619009</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8797443795078</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>129.8797443795078</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1281.377539843596</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>1026.693051637709</v>
       </c>
       <c r="W16" t="n">
-        <v>674.7185717878251</v>
+        <v>737.2758816007482</v>
       </c>
       <c r="X16" t="n">
-        <v>446.7290208898078</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="Y16" t="n">
-        <v>446.7290208898078</v>
+        <v>509.2863307027309</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,46 +5498,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507007</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>356.664776420732</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>356.664776420732</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>356.664776420732</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1128.755985561597</v>
       </c>
       <c r="V19" t="n">
-        <v>909.3712637033472</v>
+        <v>874.0714973557099</v>
       </c>
       <c r="W19" t="n">
-        <v>909.3712637033472</v>
+        <v>584.6543273187493</v>
       </c>
       <c r="X19" t="n">
-        <v>681.3817128053298</v>
+        <v>356.664776420732</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.8952892852544</v>
+        <v>356.664776420732</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,7 +5741,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,28 +5750,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507007</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.8029164824583</v>
+        <v>552.3735683412847</v>
       </c>
       <c r="C22" t="n">
-        <v>247.8029164824583</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D22" t="n">
-        <v>247.8029164824583</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E22" t="n">
-        <v>247.8029164824583</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>247.8029164824583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>247.8029164824583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X22" t="n">
-        <v>468.5954956259884</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.8029164824583</v>
+        <v>734.0220331715244</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1818.397748747284</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2338.698370483031</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765189</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706319</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706319</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X25" t="n">
-        <v>531.3977182706319</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y25" t="n">
-        <v>428.9821957028613</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6200,58 +6200,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.520085263587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>828.2191568567739</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>659.282973928867</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>659.282973928867</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>511.369880346474</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>511.369880346474</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473456</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687014</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687014</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1009.867621687014</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1009.867621687014</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1009.867621687014</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6443,52 +6443,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508404</v>
+        <v>565.4200295030874</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043041</v>
+        <v>452.2447118565518</v>
       </c>
       <c r="D31" t="n">
-        <v>448.686584473339</v>
+        <v>357.8889377255869</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723164</v>
+        <v>265.7367094245646</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557766</v>
+        <v>265.7367094245646</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569678</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933497</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1754.4143034683</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1586.389753539177</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1353.021980034106</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.021980034106</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.365675278516</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618689</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.1052757997095</v>
+        <v>565.4200295030874</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6844,7 +6844,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010318</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6920,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,13 +6956,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,19 +7090,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103131</v>
@@ -7327,37 +7327,37 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7637,13 +7637,13 @@
         <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7713,19 +7713,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
         <v>674.428562457161</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103131</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982974</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
@@ -7822,7 +7822,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.7396287231146</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504478</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231148</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.60293177984579</v>
+        <v>70.27210634919919</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>134.1575420733479</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>70.87400899141375</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>117.6994802358382</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.1430940672204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>118.9161651202113</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>110.2531070598574</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.1552327346236666</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.1932860100019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>15.8153812978592</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338534</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>93.3824506248785</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897924</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>17.58400713838767</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922478.7469922896</v>
+        <v>922478.7469922897</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
@@ -26332,25 +26332,25 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>508527.6716815879</v>
+        <v>508527.6716815877</v>
       </c>
       <c r="L2" t="n">
+        <v>513151.1061651764</v>
+      </c>
+      <c r="M2" t="n">
         <v>513151.1061651763</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>513151.1061651765</v>
       </c>
-      <c r="N2" t="n">
-        <v>513151.1061651764</v>
-      </c>
       <c r="O2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651763</v>
       </c>
       <c r="P2" t="n">
         <v>513151.1061651763</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028453</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086701</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284548</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159209</v>
@@ -26424,37 +26424,37 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007401</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007455</v>
+        <v>7916.731656007493</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007493</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007513</v>
+        <v>7916.731656007499</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020397</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732796</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.899828698</v>
+        <v>-307592.8998286979</v>
       </c>
       <c r="C6" t="n">
         <v>282374.9793858466</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.9793858468</v>
+        <v>282374.979385847</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094848</v>
+        <v>-136375.2285354565</v>
       </c>
       <c r="F6" t="n">
-        <v>388882.2670674118</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="G6" t="n">
-        <v>388882.2670674118</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="H6" t="n">
-        <v>388882.2670674118</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.2670674117</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.0478748187</v>
+        <v>212361.5887488466</v>
       </c>
       <c r="K6" t="n">
-        <v>341655.5036783158</v>
+        <v>341637.0099403809</v>
       </c>
       <c r="L6" t="n">
-        <v>374757.5746469559</v>
+        <v>374757.5746469562</v>
       </c>
       <c r="M6" t="n">
-        <v>250299.4662139859</v>
+        <v>250299.4662139858</v>
       </c>
       <c r="N6" t="n">
-        <v>385100.481447823</v>
+        <v>385100.4814478232</v>
       </c>
       <c r="O6" t="n">
-        <v>385100.4814478231</v>
+        <v>385100.4814478229</v>
       </c>
       <c r="P6" t="n">
-        <v>340937.8761449775</v>
+        <v>340937.8761449773</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,7 +26719,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964062</v>
@@ -26735,46 +26735,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541004</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
@@ -26796,7 +26796,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855683</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108377</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855686</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855683</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100.8866414480756</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>254.8175771960201</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.85718120047569</v>
       </c>
       <c r="I4" t="n">
-        <v>115.3426043238364</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>226.9689958712396</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>36.52136000867353</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>78.20626488875325</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>78.4748982365219</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>109.3788185999333</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339484</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4245153318073</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042818</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30238,10 +30238,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35814,16 +35814,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>287.7526615081887</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109047</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110541</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941224</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043163</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37716,10 +37716,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
